--- a/JourneyofLords/Assets/Scripts/GameData/HeroRecruit2.xlsx
+++ b/JourneyofLords/Assets/Scripts/GameData/HeroRecruit2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SangHyeok\Documents\GitHub\JourneyofLords\JourneyofLords\Assets\Scripts\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E97EC9D-D67F-42F3-B97A-4D6B059AD1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DC47BB-3547-428D-886D-1612332C9916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -416,7 +416,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B43" si="0">C3/6</f>
+        <f t="shared" ref="B3:B19" si="0">C3/6</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C3" s="1">
@@ -620,8 +620,8 @@
         <v>30</v>
       </c>
       <c r="B20">
-        <f>C20/10</f>
-        <v>7.000000000000001E-3</v>
+        <f>C20/13</f>
+        <v>5.3846153846153853E-3</v>
       </c>
       <c r="C20" s="2">
         <v>7.0000000000000007E-2</v>
@@ -633,8 +633,8 @@
         <v>33</v>
       </c>
       <c r="B21">
-        <f t="shared" ref="B21:B43" si="1">C21/10</f>
-        <v>7.000000000000001E-3</v>
+        <f t="shared" ref="B21:B32" si="1">C21/13</f>
+        <v>5.3846153846153853E-3</v>
       </c>
       <c r="C21" s="2">
         <v>7.0000000000000007E-2</v>
@@ -642,12 +642,12 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f t="shared" ref="A22:A31" si="2">A21+3</f>
+        <f t="shared" ref="A22:A32" si="2">A21+3</f>
         <v>36</v>
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
-        <v>7.000000000000001E-3</v>
+        <v>5.3846153846153853E-3</v>
       </c>
       <c r="C22" s="2">
         <v>7.0000000000000007E-2</v>
@@ -660,7 +660,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="1"/>
-        <v>7.000000000000001E-3</v>
+        <v>5.3846153846153853E-3</v>
       </c>
       <c r="C23" s="2">
         <v>7.0000000000000007E-2</v>
@@ -673,7 +673,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
-        <v>7.000000000000001E-3</v>
+        <v>5.3846153846153853E-3</v>
       </c>
       <c r="C24" s="2">
         <v>7.0000000000000007E-2</v>
@@ -686,7 +686,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
-        <v>7.000000000000001E-3</v>
+        <v>5.3846153846153853E-3</v>
       </c>
       <c r="C25" s="2">
         <v>7.0000000000000007E-2</v>
@@ -699,7 +699,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
-        <v>7.000000000000001E-3</v>
+        <v>5.3846153846153853E-3</v>
       </c>
       <c r="C26" s="2">
         <v>7.0000000000000007E-2</v>
@@ -712,7 +712,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
-        <v>7.000000000000001E-3</v>
+        <v>5.3846153846153853E-3</v>
       </c>
       <c r="C27" s="2">
         <v>7.0000000000000007E-2</v>
@@ -725,7 +725,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
-        <v>7.000000000000001E-3</v>
+        <v>5.3846153846153853E-3</v>
       </c>
       <c r="C28" s="2">
         <v>7.0000000000000007E-2</v>
@@ -738,7 +738,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
-        <v>7.000000000000001E-3</v>
+        <v>5.3846153846153853E-3</v>
       </c>
       <c r="C29" s="2">
         <v>7.0000000000000007E-2</v>
@@ -751,7 +751,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
-        <v>7.000000000000001E-3</v>
+        <v>5.3846153846153853E-3</v>
       </c>
       <c r="C30" s="2">
         <v>7.0000000000000007E-2</v>
@@ -764,7 +764,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
-        <v>7.000000000000001E-3</v>
+        <v>5.3846153846153853E-3</v>
       </c>
       <c r="C31" s="2">
         <v>7.0000000000000007E-2</v>
@@ -772,24 +772,24 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>66</v>
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
+        <v>5.3846153846153853E-3</v>
       </c>
       <c r="C32" s="2">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f>A32+3</f>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
+        <f>C33/13</f>
+        <v>2.3076923076923075E-3</v>
       </c>
       <c r="C33" s="2">
         <v>0.03</v>
@@ -797,12 +797,12 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f t="shared" ref="A34:A43" si="3">A33+3</f>
-        <v>37</v>
+        <f>A33+3</f>
+        <v>34</v>
       </c>
       <c r="B34">
-        <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
+        <f t="shared" ref="B34:B45" si="3">C34/13</f>
+        <v>2.3076923076923075E-3</v>
       </c>
       <c r="C34" s="2">
         <v>0.03</v>
@@ -810,12 +810,12 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <f t="shared" si="3"/>
-        <v>40</v>
+        <f t="shared" ref="A35:A45" si="4">A34+3</f>
+        <v>37</v>
       </c>
       <c r="B35">
-        <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.3076923076923075E-3</v>
       </c>
       <c r="C35" s="2">
         <v>0.03</v>
@@ -823,12 +823,12 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <f t="shared" si="3"/>
-        <v>43</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="B36">
-        <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.3076923076923075E-3</v>
       </c>
       <c r="C36" s="2">
         <v>0.03</v>
@@ -836,12 +836,12 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <f t="shared" si="3"/>
-        <v>46</v>
+        <f t="shared" si="4"/>
+        <v>43</v>
       </c>
       <c r="B37">
-        <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.3076923076923075E-3</v>
       </c>
       <c r="C37" s="2">
         <v>0.03</v>
@@ -849,12 +849,12 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <f t="shared" si="3"/>
-        <v>49</v>
+        <f t="shared" si="4"/>
+        <v>46</v>
       </c>
       <c r="B38">
-        <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.3076923076923075E-3</v>
       </c>
       <c r="C38" s="2">
         <v>0.03</v>
@@ -862,12 +862,12 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <f t="shared" si="3"/>
-        <v>52</v>
+        <f t="shared" si="4"/>
+        <v>49</v>
       </c>
       <c r="B39">
-        <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.3076923076923075E-3</v>
       </c>
       <c r="C39" s="2">
         <v>0.03</v>
@@ -875,12 +875,12 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <f t="shared" si="3"/>
-        <v>55</v>
+        <f t="shared" si="4"/>
+        <v>52</v>
       </c>
       <c r="B40">
-        <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.3076923076923075E-3</v>
       </c>
       <c r="C40" s="2">
         <v>0.03</v>
@@ -888,12 +888,12 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <f t="shared" si="3"/>
-        <v>58</v>
+        <f t="shared" si="4"/>
+        <v>55</v>
       </c>
       <c r="B41">
-        <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.3076923076923075E-3</v>
       </c>
       <c r="C41" s="2">
         <v>0.03</v>
@@ -901,12 +901,12 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <f t="shared" si="3"/>
-        <v>61</v>
+        <f t="shared" si="4"/>
+        <v>58</v>
       </c>
       <c r="B42">
-        <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.3076923076923075E-3</v>
       </c>
       <c r="C42" s="2">
         <v>0.03</v>
@@ -914,14 +914,40 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="3"/>
+        <v>2.3076923076923075E-3</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="B43">
-        <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C43" s="2">
+      <c r="B44">
+        <f t="shared" si="3"/>
+        <v>2.3076923076923075E-3</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="3"/>
+        <v>2.3076923076923075E-3</v>
+      </c>
+      <c r="C45" s="2">
         <v>0.03</v>
       </c>
     </row>
